--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16128,7 +16128,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>110551112</v>
+        <v>110551094</v>
       </c>
       <c r="B135" t="n">
         <v>56398</v>
@@ -16176,10 +16176,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>446670.0812223334</v>
+        <v>446925.6462437027</v>
       </c>
       <c r="R135" t="n">
-        <v>7032508.43256624</v>
+        <v>7032608.560950125</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
@@ -16248,7 +16248,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>110551094</v>
+        <v>110551112</v>
       </c>
       <c r="B136" t="n">
         <v>56398</v>
@@ -16296,10 +16296,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>446925.6462437027</v>
+        <v>446670.0812223334</v>
       </c>
       <c r="R136" t="n">
-        <v>7032608.560950125</v>
+        <v>7032508.43256624</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16128,7 +16128,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>110551094</v>
+        <v>110551112</v>
       </c>
       <c r="B135" t="n">
         <v>56398</v>
@@ -16176,10 +16176,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>446925.6462437027</v>
+        <v>446670.0812223334</v>
       </c>
       <c r="R135" t="n">
-        <v>7032608.560950125</v>
+        <v>7032508.43256624</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
@@ -16248,7 +16248,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>110551112</v>
+        <v>110551094</v>
       </c>
       <c r="B136" t="n">
         <v>56398</v>
@@ -16296,10 +16296,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>446670.0812223334</v>
+        <v>446925.6462437027</v>
       </c>
       <c r="R136" t="n">
-        <v>7032508.43256624</v>
+        <v>7032608.560950125</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY136"/>
+  <dimension ref="A1:AY151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16366,6 +16366,1737 @@
       </c>
       <c r="AY136" t="inlineStr"/>
     </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>112103325</v>
+      </c>
+      <c r="B137" t="n">
+        <v>85313</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>3739</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Persiljespindling</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Cortinarius sulfurinus</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>446867.4804056262</v>
+      </c>
+      <c r="R137" t="n">
+        <v>7032725.549778301</v>
+      </c>
+      <c r="S137" t="n">
+        <v>10</v>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT137" t="inlineStr"/>
+      <c r="AW137" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX137" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>112104553</v>
+      </c>
+      <c r="B138" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>446688.4300003364</v>
+      </c>
+      <c r="R138" t="n">
+        <v>7032559.644946836</v>
+      </c>
+      <c r="S138" t="n">
+        <v>10</v>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT138" t="inlineStr"/>
+      <c r="AW138" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX138" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>112102200</v>
+      </c>
+      <c r="B139" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>446961.2729180742</v>
+      </c>
+      <c r="R139" t="n">
+        <v>7032565.860167116</v>
+      </c>
+      <c r="S139" t="n">
+        <v>10</v>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT139" t="inlineStr"/>
+      <c r="AW139" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX139" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>112101773</v>
+      </c>
+      <c r="B140" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>446983.6614166541</v>
+      </c>
+      <c r="R140" t="n">
+        <v>7032942.217245953</v>
+      </c>
+      <c r="S140" t="n">
+        <v>10</v>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA140" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT140" t="inlineStr"/>
+      <c r="AW140" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX140" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>112102196</v>
+      </c>
+      <c r="B141" t="n">
+        <v>88956</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>446963.5003665166</v>
+      </c>
+      <c r="R141" t="n">
+        <v>7032564.927270759</v>
+      </c>
+      <c r="S141" t="n">
+        <v>10</v>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT141" t="inlineStr"/>
+      <c r="AW141" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX141" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>112111498</v>
+      </c>
+      <c r="B142" t="n">
+        <v>88033</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1599</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Fjällfotad musseron</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Tricholoma olivaceotinctum</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>446860.139727794</v>
+      </c>
+      <c r="R142" t="n">
+        <v>7032742.69407742</v>
+      </c>
+      <c r="S142" t="n">
+        <v>10</v>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT142" t="inlineStr"/>
+      <c r="AW142" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX142" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>112102104</v>
+      </c>
+      <c r="B143" t="n">
+        <v>90651</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Grantaggsvamp</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Bankera violascens</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>446883.2557033793</v>
+      </c>
+      <c r="R143" t="n">
+        <v>7032568.050871431</v>
+      </c>
+      <c r="S143" t="n">
+        <v>10</v>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT143" t="inlineStr"/>
+      <c r="AW143" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX143" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>112111486</v>
+      </c>
+      <c r="B144" t="n">
+        <v>82949</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>5589</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Rödbrun klubbdyna</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Trichoderma nybergianum</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>446833.4140082744</v>
+      </c>
+      <c r="R144" t="n">
+        <v>7032727.011846939</v>
+      </c>
+      <c r="S144" t="n">
+        <v>10</v>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT144" t="inlineStr"/>
+      <c r="AW144" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX144" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>112111606</v>
+      </c>
+      <c r="B145" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>446863.3105291876</v>
+      </c>
+      <c r="R145" t="n">
+        <v>7032717.55581628</v>
+      </c>
+      <c r="S145" t="n">
+        <v>10</v>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT145" t="inlineStr"/>
+      <c r="AW145" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX145" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>112101944</v>
+      </c>
+      <c r="B146" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>446857.8975496973</v>
+      </c>
+      <c r="R146" t="n">
+        <v>7032742.731334708</v>
+      </c>
+      <c r="S146" t="n">
+        <v>10</v>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT146" t="inlineStr"/>
+      <c r="AW146" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX146" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>112104547</v>
+      </c>
+      <c r="B147" t="n">
+        <v>88946</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>256335</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Taggfingersvamp</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Ramaria karstenii</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>446688.4300003364</v>
+      </c>
+      <c r="R147" t="n">
+        <v>7032559.644946836</v>
+      </c>
+      <c r="S147" t="n">
+        <v>10</v>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT147" t="inlineStr"/>
+      <c r="AW147" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX147" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>112104573</v>
+      </c>
+      <c r="B148" t="n">
+        <v>88033</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1599</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Fjällfotad musseron</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Tricholoma olivaceotinctum</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>446696.0171395433</v>
+      </c>
+      <c r="R148" t="n">
+        <v>7032530.399564721</v>
+      </c>
+      <c r="S148" t="n">
+        <v>10</v>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT148" t="inlineStr"/>
+      <c r="AW148" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX148" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>112102682</v>
+      </c>
+      <c r="B149" t="n">
+        <v>84820</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>275</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kejsarskivling</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Catathelasma imperiale</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Singer</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>447024.9334127782</v>
+      </c>
+      <c r="R149" t="n">
+        <v>7032671.870272635</v>
+      </c>
+      <c r="S149" t="n">
+        <v>10</v>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT149" t="inlineStr"/>
+      <c r="AW149" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX149" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>112104266</v>
+      </c>
+      <c r="B150" t="n">
+        <v>88956</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>446732.1312419278</v>
+      </c>
+      <c r="R150" t="n">
+        <v>7032597.890938614</v>
+      </c>
+      <c r="S150" t="n">
+        <v>10</v>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT150" t="inlineStr"/>
+      <c r="AW150" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX150" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>112104270</v>
+      </c>
+      <c r="B151" t="n">
+        <v>85313</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>3739</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Persiljespindling</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Cortinarius sulfurinus</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>Renkullmyren (Renkullmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>446732.1312419278</v>
+      </c>
+      <c r="R151" t="n">
+        <v>7032597.890938614</v>
+      </c>
+      <c r="S151" t="n">
+        <v>10</v>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD151" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE151" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT151" t="inlineStr"/>
+      <c r="AW151" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX151" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY151" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16368,10 +16368,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112103325</v>
+        <v>112102104</v>
       </c>
       <c r="B137" t="n">
-        <v>85313</v>
+        <v>90651</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16384,21 +16384,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3739</v>
+        <v>1968</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16411,10 +16411,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>446867.4804056262</v>
+        <v>446883.2557033793</v>
       </c>
       <c r="R137" t="n">
-        <v>7032725.549778301</v>
+        <v>7032568.050871431</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16600,10 +16600,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112102200</v>
+        <v>112102196</v>
       </c>
       <c r="B139" t="n">
-        <v>88899</v>
+        <v>88956</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16612,25 +16612,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3286</v>
+        <v>5747</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16643,10 +16643,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>446961.2729180742</v>
+        <v>446963.5003665166</v>
       </c>
       <c r="R139" t="n">
-        <v>7032565.860167116</v>
+        <v>7032564.927270759</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16716,10 +16716,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112101773</v>
+        <v>112111606</v>
       </c>
       <c r="B140" t="n">
-        <v>86223</v>
+        <v>88899</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16732,37 +16732,35 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>446983.6614166541</v>
+        <v>446863.3105291876</v>
       </c>
       <c r="R140" t="n">
-        <v>7032942.217245953</v>
+        <v>7032717.55581628</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16813,7 +16811,6 @@
       <c r="AE140" t="b">
         <v>0</v>
       </c>
-      <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="b">
         <v>0</v>
       </c>
@@ -16832,10 +16829,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112102196</v>
+        <v>112104547</v>
       </c>
       <c r="B141" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16848,21 +16845,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16875,10 +16872,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>446963.5003665166</v>
+        <v>446688.4300003364</v>
       </c>
       <c r="R141" t="n">
-        <v>7032564.927270759</v>
+        <v>7032559.644946836</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16948,10 +16945,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112111498</v>
+        <v>112103325</v>
       </c>
       <c r="B142" t="n">
-        <v>88033</v>
+        <v>85313</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16960,39 +16957,41 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1599</v>
+        <v>3739</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>446860.139727794</v>
+        <v>446867.4804056262</v>
       </c>
       <c r="R142" t="n">
-        <v>7032742.69407742</v>
+        <v>7032725.549778301</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17043,6 +17042,7 @@
       <c r="AE142" t="b">
         <v>0</v>
       </c>
+      <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="b">
         <v>0</v>
       </c>
@@ -17061,10 +17061,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112102104</v>
+        <v>112104270</v>
       </c>
       <c r="B143" t="n">
-        <v>90651</v>
+        <v>85313</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17077,21 +17077,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1968</v>
+        <v>3739</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17104,10 +17104,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>446883.2557033793</v>
+        <v>446732.1312419278</v>
       </c>
       <c r="R143" t="n">
-        <v>7032568.050871431</v>
+        <v>7032597.890938614</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17177,10 +17177,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112111486</v>
+        <v>112102200</v>
       </c>
       <c r="B144" t="n">
-        <v>82949</v>
+        <v>88899</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17193,35 +17193,37 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5589</v>
+        <v>3286</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>446833.4140082744</v>
+        <v>446961.2729180742</v>
       </c>
       <c r="R144" t="n">
-        <v>7032727.011846939</v>
+        <v>7032565.860167116</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17272,6 +17274,7 @@
       <c r="AE144" t="b">
         <v>0</v>
       </c>
+      <c r="AF144" t="inlineStr"/>
       <c r="AG144" t="b">
         <v>0</v>
       </c>
@@ -17290,10 +17293,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112111606</v>
+        <v>112111486</v>
       </c>
       <c r="B145" t="n">
-        <v>88899</v>
+        <v>82949</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17306,21 +17309,21 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3286</v>
+        <v>5589</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17331,10 +17334,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>446863.3105291876</v>
+        <v>446833.4140082744</v>
       </c>
       <c r="R145" t="n">
-        <v>7032717.55581628</v>
+        <v>7032727.011846939</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17403,10 +17406,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112101944</v>
+        <v>112101773</v>
       </c>
       <c r="B146" t="n">
-        <v>88899</v>
+        <v>86223</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17419,21 +17422,21 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17446,10 +17449,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>446857.8975496973</v>
+        <v>446983.6614166541</v>
       </c>
       <c r="R146" t="n">
-        <v>7032742.731334708</v>
+        <v>7032942.217245953</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17519,10 +17522,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112104547</v>
+        <v>112104266</v>
       </c>
       <c r="B147" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17535,21 +17538,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17562,10 +17565,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>446688.4300003364</v>
+        <v>446732.1312419278</v>
       </c>
       <c r="R147" t="n">
-        <v>7032559.644946836</v>
+        <v>7032597.890938614</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17635,10 +17638,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112104573</v>
+        <v>112102682</v>
       </c>
       <c r="B148" t="n">
-        <v>88033</v>
+        <v>84820</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17651,21 +17654,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1599</v>
+        <v>275</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Kejsarskivling</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Catathelasma imperiale</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(P.Karst.) Singer</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17678,10 +17681,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>446696.0171395433</v>
+        <v>447024.9334127782</v>
       </c>
       <c r="R148" t="n">
-        <v>7032530.399564721</v>
+        <v>7032671.870272635</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17751,10 +17754,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112102682</v>
+        <v>112111498</v>
       </c>
       <c r="B149" t="n">
-        <v>84820</v>
+        <v>88033</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17767,37 +17770,35 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>275</v>
+        <v>1599</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Kejsarskivling</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Catathelasma imperiale</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(P.Karst.) Singer</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>447024.9334127782</v>
+        <v>446860.139727794</v>
       </c>
       <c r="R149" t="n">
-        <v>7032671.870272635</v>
+        <v>7032742.69407742</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17848,7 +17849,6 @@
       <c r="AE149" t="b">
         <v>0</v>
       </c>
-      <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="b">
         <v>0</v>
       </c>
@@ -17867,10 +17867,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112104266</v>
+        <v>112101944</v>
       </c>
       <c r="B150" t="n">
-        <v>88956</v>
+        <v>88899</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17879,25 +17879,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -17910,10 +17910,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>446732.1312419278</v>
+        <v>446857.8975496973</v>
       </c>
       <c r="R150" t="n">
-        <v>7032597.890938614</v>
+        <v>7032742.731334708</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17983,10 +17983,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112104270</v>
+        <v>112104573</v>
       </c>
       <c r="B151" t="n">
-        <v>85313</v>
+        <v>88033</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17995,25 +17995,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3739</v>
+        <v>1599</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18026,10 +18026,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>446732.1312419278</v>
+        <v>446696.0171395433</v>
       </c>
       <c r="R151" t="n">
-        <v>7032597.890938614</v>
+        <v>7032530.399564721</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16600,10 +16600,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112102196</v>
+        <v>112111606</v>
       </c>
       <c r="B139" t="n">
-        <v>88956</v>
+        <v>88899</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16612,41 +16612,39 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>446963.5003665166</v>
+        <v>446863.3105291876</v>
       </c>
       <c r="R139" t="n">
-        <v>7032564.927270759</v>
+        <v>7032717.55581628</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16697,7 +16695,6 @@
       <c r="AE139" t="b">
         <v>0</v>
       </c>
-      <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="b">
         <v>0</v>
       </c>
@@ -16716,10 +16713,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112111606</v>
+        <v>112104547</v>
       </c>
       <c r="B140" t="n">
-        <v>88899</v>
+        <v>88946</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16728,39 +16725,41 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3286</v>
+        <v>256335</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>446863.3105291876</v>
+        <v>446688.4300003364</v>
       </c>
       <c r="R140" t="n">
-        <v>7032717.55581628</v>
+        <v>7032559.644946836</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16811,6 +16810,7 @@
       <c r="AE140" t="b">
         <v>0</v>
       </c>
+      <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="b">
         <v>0</v>
       </c>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112104547</v>
+        <v>112102196</v>
       </c>
       <c r="B141" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16845,21 +16845,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16872,10 +16872,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>446688.4300003364</v>
+        <v>446963.5003665166</v>
       </c>
       <c r="R141" t="n">
-        <v>7032559.644946836</v>
+        <v>7032564.927270759</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17406,10 +17406,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112101773</v>
+        <v>112104266</v>
       </c>
       <c r="B146" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17418,25 +17418,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17449,10 +17449,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>446983.6614166541</v>
+        <v>446732.1312419278</v>
       </c>
       <c r="R146" t="n">
-        <v>7032942.217245953</v>
+        <v>7032597.890938614</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17522,10 +17522,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112104266</v>
+        <v>112101773</v>
       </c>
       <c r="B147" t="n">
-        <v>88956</v>
+        <v>86223</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17534,25 +17534,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17565,10 +17565,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>446732.1312419278</v>
+        <v>446983.6614166541</v>
       </c>
       <c r="R147" t="n">
-        <v>7032597.890938614</v>
+        <v>7032942.217245953</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16368,10 +16368,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112102104</v>
+        <v>112104266</v>
       </c>
       <c r="B137" t="n">
-        <v>90651</v>
+        <v>88956</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16380,25 +16380,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1968</v>
+        <v>5747</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16411,10 +16411,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>446883.2557033793</v>
+        <v>446732</v>
       </c>
       <c r="R137" t="n">
-        <v>7032568.050871431</v>
+        <v>7032598</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16444,19 +16444,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA137" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB137" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD137" t="b">
@@ -16484,10 +16474,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112104553</v>
+        <v>112102196</v>
       </c>
       <c r="B138" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16496,25 +16486,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16527,10 +16517,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>446688.4300003364</v>
+        <v>446964</v>
       </c>
       <c r="R138" t="n">
-        <v>7032559.644946836</v>
+        <v>7032565</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16560,19 +16550,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA138" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB138" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD138" t="b">
@@ -16600,10 +16580,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112111606</v>
+        <v>112111498</v>
       </c>
       <c r="B139" t="n">
-        <v>88899</v>
+        <v>88033</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16612,25 +16592,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3286</v>
+        <v>1599</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16641,10 +16621,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>446863.3105291876</v>
+        <v>446860</v>
       </c>
       <c r="R139" t="n">
-        <v>7032717.55581628</v>
+        <v>7032743</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16674,19 +16654,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA139" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD139" t="b">
@@ -16713,10 +16683,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112104547</v>
+        <v>112102104</v>
       </c>
       <c r="B140" t="n">
-        <v>88946</v>
+        <v>90651</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16725,25 +16695,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>256335</v>
+        <v>1968</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16756,10 +16726,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>446688.4300003364</v>
+        <v>446883</v>
       </c>
       <c r="R140" t="n">
-        <v>7032559.644946836</v>
+        <v>7032568</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16789,19 +16759,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA140" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD140" t="b">
@@ -16829,10 +16789,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112102196</v>
+        <v>112104270</v>
       </c>
       <c r="B141" t="n">
-        <v>88956</v>
+        <v>85313</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16841,25 +16801,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>5747</v>
+        <v>3739</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16872,10 +16832,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>446963.5003665166</v>
+        <v>446732</v>
       </c>
       <c r="R141" t="n">
-        <v>7032564.927270759</v>
+        <v>7032598</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16905,19 +16865,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA141" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB141" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD141" t="b">
@@ -16945,10 +16895,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112103325</v>
+        <v>112111486</v>
       </c>
       <c r="B142" t="n">
-        <v>85313</v>
+        <v>82949</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16961,37 +16911,35 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3739</v>
+        <v>5589</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>446867.4804056262</v>
+        <v>446833</v>
       </c>
       <c r="R142" t="n">
-        <v>7032725.549778301</v>
+        <v>7032727</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17021,28 +16969,17 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA142" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD142" t="b">
         <v>0</v>
       </c>
       <c r="AE142" t="b">
         <v>0</v>
       </c>
-      <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="b">
         <v>0</v>
       </c>
@@ -17061,10 +16998,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112104270</v>
+        <v>112111606</v>
       </c>
       <c r="B143" t="n">
-        <v>85313</v>
+        <v>88899</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17077,37 +17014,35 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3739</v>
+        <v>3286</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>446732.1312419278</v>
+        <v>446863</v>
       </c>
       <c r="R143" t="n">
-        <v>7032597.890938614</v>
+        <v>7032718</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17137,28 +17072,17 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA143" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB143" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD143" t="b">
         <v>0</v>
       </c>
       <c r="AE143" t="b">
         <v>0</v>
       </c>
-      <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="b">
         <v>0</v>
       </c>
@@ -17177,10 +17101,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112102200</v>
+        <v>112102682</v>
       </c>
       <c r="B144" t="n">
-        <v>88899</v>
+        <v>84820</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17189,25 +17113,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3286</v>
+        <v>275</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Kejsarskivling</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Catathelasma imperiale</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(P.Karst.) Singer</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17220,10 +17144,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>446961.2729180742</v>
+        <v>447025</v>
       </c>
       <c r="R144" t="n">
-        <v>7032565.860167116</v>
+        <v>7032672</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17253,19 +17177,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA144" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD144" t="b">
@@ -17293,10 +17207,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112111486</v>
+        <v>112104553</v>
       </c>
       <c r="B145" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17309,35 +17223,37 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>446833.4140082744</v>
+        <v>446688</v>
       </c>
       <c r="R145" t="n">
-        <v>7032727.011846939</v>
+        <v>7032560</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17367,27 +17283,18 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA145" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD145" t="b">
         <v>0</v>
       </c>
       <c r="AE145" t="b">
         <v>0</v>
       </c>
+      <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="b">
         <v>0</v>
       </c>
@@ -17406,10 +17313,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112104266</v>
+        <v>112102200</v>
       </c>
       <c r="B146" t="n">
-        <v>88956</v>
+        <v>88899</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17418,25 +17325,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17449,10 +17356,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>446732.1312419278</v>
+        <v>446961</v>
       </c>
       <c r="R146" t="n">
-        <v>7032597.890938614</v>
+        <v>7032566</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17482,19 +17389,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA146" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB146" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD146" t="b">
@@ -17522,10 +17419,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112101773</v>
+        <v>112101944</v>
       </c>
       <c r="B147" t="n">
-        <v>86223</v>
+        <v>88899</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17538,21 +17435,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17565,10 +17462,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>446983.6614166541</v>
+        <v>446858</v>
       </c>
       <c r="R147" t="n">
-        <v>7032942.217245953</v>
+        <v>7032743</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17598,19 +17495,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA147" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD147" t="b">
@@ -17638,10 +17525,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112102682</v>
+        <v>112103325</v>
       </c>
       <c r="B148" t="n">
-        <v>84820</v>
+        <v>85313</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17650,25 +17537,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>275</v>
+        <v>3739</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Kejsarskivling</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Catathelasma imperiale</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(P.Karst.) Singer</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17681,10 +17568,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>447024.9334127782</v>
+        <v>446867</v>
       </c>
       <c r="R148" t="n">
-        <v>7032671.870272635</v>
+        <v>7032726</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17714,19 +17601,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA148" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB148" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD148" t="b">
@@ -17754,7 +17631,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112111498</v>
+        <v>112104573</v>
       </c>
       <c r="B149" t="n">
         <v>88033</v>
@@ -17788,17 +17665,19 @@
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>446860.139727794</v>
+        <v>446696</v>
       </c>
       <c r="R149" t="n">
-        <v>7032742.69407742</v>
+        <v>7032530</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17828,27 +17707,18 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA149" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD149" t="b">
         <v>0</v>
       </c>
       <c r="AE149" t="b">
         <v>0</v>
       </c>
+      <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="b">
         <v>0</v>
       </c>
@@ -17867,10 +17737,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112101944</v>
+        <v>112101773</v>
       </c>
       <c r="B150" t="n">
-        <v>88899</v>
+        <v>86223</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17883,21 +17753,21 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -17910,10 +17780,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>446857.8975496973</v>
+        <v>446984</v>
       </c>
       <c r="R150" t="n">
-        <v>7032742.731334708</v>
+        <v>7032942</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17943,19 +17813,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA150" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB150" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -17983,10 +17843,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112104573</v>
+        <v>112104547</v>
       </c>
       <c r="B151" t="n">
-        <v>88033</v>
+        <v>88946</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17999,21 +17859,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1599</v>
+        <v>256335</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18026,10 +17886,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>446696.0171395433</v>
+        <v>446688</v>
       </c>
       <c r="R151" t="n">
-        <v>7032530.399564721</v>
+        <v>7032560</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18059,19 +17919,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA151" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB151" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD151" t="b">

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16368,10 +16368,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112104266</v>
+        <v>112101773</v>
       </c>
       <c r="B137" t="n">
-        <v>88956</v>
+        <v>86357</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16380,25 +16380,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16411,10 +16411,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>446732</v>
+        <v>446984</v>
       </c>
       <c r="R137" t="n">
-        <v>7032598</v>
+        <v>7032942</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16474,10 +16474,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112102196</v>
+        <v>112102104</v>
       </c>
       <c r="B138" t="n">
-        <v>88956</v>
+        <v>90785</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16486,25 +16486,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>5747</v>
+        <v>1968</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16517,10 +16517,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>446964</v>
+        <v>446883</v>
       </c>
       <c r="R138" t="n">
-        <v>7032565</v>
+        <v>7032568</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16580,10 +16580,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112111498</v>
+        <v>112111486</v>
       </c>
       <c r="B139" t="n">
-        <v>88033</v>
+        <v>83072</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16592,25 +16592,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1599</v>
+        <v>5589</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16621,10 +16621,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>446860</v>
+        <v>446833</v>
       </c>
       <c r="R139" t="n">
-        <v>7032743</v>
+        <v>7032727</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16683,10 +16683,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112102104</v>
+        <v>112103325</v>
       </c>
       <c r="B140" t="n">
-        <v>90651</v>
+        <v>85434</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16699,21 +16699,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1968</v>
+        <v>3739</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16726,10 +16726,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>446883</v>
+        <v>446867</v>
       </c>
       <c r="R140" t="n">
-        <v>7032568</v>
+        <v>7032726</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16789,10 +16789,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112104270</v>
+        <v>112102682</v>
       </c>
       <c r="B141" t="n">
-        <v>85313</v>
+        <v>84941</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16801,25 +16801,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3739</v>
+        <v>275</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Kejsarskivling</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Catathelasma imperiale</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(P.Karst.) Singer</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16832,10 +16832,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>446732</v>
+        <v>447025</v>
       </c>
       <c r="R141" t="n">
-        <v>7032598</v>
+        <v>7032672</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16895,10 +16895,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112111486</v>
+        <v>112104553</v>
       </c>
       <c r="B142" t="n">
-        <v>82949</v>
+        <v>86357</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16911,35 +16911,37 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>446833</v>
+        <v>446688</v>
       </c>
       <c r="R142" t="n">
-        <v>7032727</v>
+        <v>7032560</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -16980,6 +16982,7 @@
       <c r="AE142" t="b">
         <v>0</v>
       </c>
+      <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="b">
         <v>0</v>
       </c>
@@ -16998,10 +17001,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112111606</v>
+        <v>112111498</v>
       </c>
       <c r="B143" t="n">
-        <v>88899</v>
+        <v>88167</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17010,25 +17013,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3286</v>
+        <v>1599</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17039,10 +17042,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>446863</v>
+        <v>446860</v>
       </c>
       <c r="R143" t="n">
-        <v>7032718</v>
+        <v>7032743</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17101,10 +17104,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112102682</v>
+        <v>112104266</v>
       </c>
       <c r="B144" t="n">
-        <v>84820</v>
+        <v>89090</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17117,21 +17120,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>275</v>
+        <v>5747</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Kejsarskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Catathelasma imperiale</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(P.Karst.) Singer</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17144,10 +17147,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>447025</v>
+        <v>446732</v>
       </c>
       <c r="R144" t="n">
-        <v>7032672</v>
+        <v>7032598</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17207,10 +17210,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112104553</v>
+        <v>112102200</v>
       </c>
       <c r="B145" t="n">
-        <v>86223</v>
+        <v>89033</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17223,21 +17226,21 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17250,10 +17253,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>446688</v>
+        <v>446961</v>
       </c>
       <c r="R145" t="n">
-        <v>7032560</v>
+        <v>7032566</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17313,10 +17316,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112102200</v>
+        <v>112104573</v>
       </c>
       <c r="B146" t="n">
-        <v>88899</v>
+        <v>88167</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17325,25 +17328,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3286</v>
+        <v>1599</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17356,10 +17359,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>446961</v>
+        <v>446696</v>
       </c>
       <c r="R146" t="n">
-        <v>7032566</v>
+        <v>7032530</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17419,10 +17422,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112101944</v>
+        <v>112104547</v>
       </c>
       <c r="B147" t="n">
-        <v>88899</v>
+        <v>89080</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17431,25 +17434,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3286</v>
+        <v>256335</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17462,10 +17465,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>446858</v>
+        <v>446688</v>
       </c>
       <c r="R147" t="n">
-        <v>7032743</v>
+        <v>7032560</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17525,10 +17528,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112103325</v>
+        <v>112101944</v>
       </c>
       <c r="B148" t="n">
-        <v>85313</v>
+        <v>89033</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17541,21 +17544,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3739</v>
+        <v>3286</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17568,10 +17571,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>446867</v>
+        <v>446858</v>
       </c>
       <c r="R148" t="n">
-        <v>7032726</v>
+        <v>7032743</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17631,10 +17634,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112104573</v>
+        <v>112111606</v>
       </c>
       <c r="B149" t="n">
-        <v>88033</v>
+        <v>89033</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17643,41 +17646,39 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1599</v>
+        <v>3286</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>446696</v>
+        <v>446863</v>
       </c>
       <c r="R149" t="n">
-        <v>7032530</v>
+        <v>7032718</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17718,7 +17719,6 @@
       <c r="AE149" t="b">
         <v>0</v>
       </c>
-      <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="b">
         <v>0</v>
       </c>
@@ -17737,10 +17737,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112101773</v>
+        <v>112104270</v>
       </c>
       <c r="B150" t="n">
-        <v>86223</v>
+        <v>85434</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17753,21 +17753,21 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4412</v>
+        <v>3739</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -17780,10 +17780,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>446984</v>
+        <v>446732</v>
       </c>
       <c r="R150" t="n">
-        <v>7032942</v>
+        <v>7032598</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17843,10 +17843,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112104547</v>
+        <v>112102196</v>
       </c>
       <c r="B151" t="n">
-        <v>88946</v>
+        <v>89090</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17859,21 +17859,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17886,10 +17886,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>446688</v>
+        <v>446964</v>
       </c>
       <c r="R151" t="n">
-        <v>7032560</v>
+        <v>7032565</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16368,10 +16368,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112101773</v>
+        <v>112102104</v>
       </c>
       <c r="B137" t="n">
-        <v>86357</v>
+        <v>90785</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16384,21 +16384,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4412</v>
+        <v>1968</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16411,10 +16411,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>446984</v>
+        <v>446883</v>
       </c>
       <c r="R137" t="n">
-        <v>7032942</v>
+        <v>7032568</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16474,10 +16474,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112102104</v>
+        <v>112101773</v>
       </c>
       <c r="B138" t="n">
-        <v>90785</v>
+        <v>86357</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16490,21 +16490,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1968</v>
+        <v>4412</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16517,10 +16517,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>446883</v>
+        <v>446984</v>
       </c>
       <c r="R138" t="n">
-        <v>7032568</v>
+        <v>7032942</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16368,10 +16368,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112102104</v>
+        <v>112111486</v>
       </c>
       <c r="B137" t="n">
-        <v>90785</v>
+        <v>83086</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16384,37 +16384,35 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1968</v>
+        <v>5589</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>446883</v>
+        <v>446833</v>
       </c>
       <c r="R137" t="n">
-        <v>7032568</v>
+        <v>7032727</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16455,7 +16453,6 @@
       <c r="AE137" t="b">
         <v>0</v>
       </c>
-      <c r="AF137" t="inlineStr"/>
       <c r="AG137" t="b">
         <v>0</v>
       </c>
@@ -16474,10 +16471,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112101773</v>
+        <v>112111606</v>
       </c>
       <c r="B138" t="n">
-        <v>86357</v>
+        <v>89047</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16490,37 +16487,35 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>446984</v>
+        <v>446863</v>
       </c>
       <c r="R138" t="n">
-        <v>7032942</v>
+        <v>7032718</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16561,7 +16556,6 @@
       <c r="AE138" t="b">
         <v>0</v>
       </c>
-      <c r="AF138" t="inlineStr"/>
       <c r="AG138" t="b">
         <v>0</v>
       </c>
@@ -16580,10 +16574,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112111486</v>
+        <v>112103325</v>
       </c>
       <c r="B139" t="n">
-        <v>83072</v>
+        <v>85448</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16596,35 +16590,37 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5589</v>
+        <v>3739</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>446833</v>
+        <v>446867</v>
       </c>
       <c r="R139" t="n">
-        <v>7032727</v>
+        <v>7032726</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16665,6 +16661,7 @@
       <c r="AE139" t="b">
         <v>0</v>
       </c>
+      <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="b">
         <v>0</v>
       </c>
@@ -16683,10 +16680,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112103325</v>
+        <v>112104547</v>
       </c>
       <c r="B140" t="n">
-        <v>85434</v>
+        <v>89094</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16695,25 +16692,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3739</v>
+        <v>256335</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16726,10 +16723,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>446867</v>
+        <v>446688</v>
       </c>
       <c r="R140" t="n">
-        <v>7032726</v>
+        <v>7032560</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16789,10 +16786,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112102682</v>
+        <v>112111498</v>
       </c>
       <c r="B141" t="n">
-        <v>84941</v>
+        <v>88181</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16805,37 +16802,35 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>275</v>
+        <v>1599</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Kejsarskivling</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Catathelasma imperiale</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(P.Karst.) Singer</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>447025</v>
+        <v>446860</v>
       </c>
       <c r="R141" t="n">
-        <v>7032672</v>
+        <v>7032743</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16876,7 +16871,6 @@
       <c r="AE141" t="b">
         <v>0</v>
       </c>
-      <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="b">
         <v>0</v>
       </c>
@@ -16895,10 +16889,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112104553</v>
+        <v>112102200</v>
       </c>
       <c r="B142" t="n">
-        <v>86357</v>
+        <v>89047</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16911,21 +16905,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -16938,10 +16932,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>446688</v>
+        <v>446961</v>
       </c>
       <c r="R142" t="n">
-        <v>7032560</v>
+        <v>7032566</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17001,10 +16995,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112111498</v>
+        <v>112101773</v>
       </c>
       <c r="B143" t="n">
-        <v>88167</v>
+        <v>86371</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17013,39 +17007,41 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1599</v>
+        <v>4412</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>446860</v>
+        <v>446984</v>
       </c>
       <c r="R143" t="n">
-        <v>7032743</v>
+        <v>7032942</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17086,6 +17082,7 @@
       <c r="AE143" t="b">
         <v>0</v>
       </c>
+      <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="b">
         <v>0</v>
       </c>
@@ -17107,7 +17104,7 @@
         <v>112104266</v>
       </c>
       <c r="B144" t="n">
-        <v>89090</v>
+        <v>89104</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17210,10 +17207,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112102200</v>
+        <v>112104573</v>
       </c>
       <c r="B145" t="n">
-        <v>89033</v>
+        <v>88181</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17222,25 +17219,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3286</v>
+        <v>1599</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17253,10 +17250,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>446961</v>
+        <v>446696</v>
       </c>
       <c r="R145" t="n">
-        <v>7032566</v>
+        <v>7032530</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17316,10 +17313,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112104573</v>
+        <v>112104270</v>
       </c>
       <c r="B146" t="n">
-        <v>88167</v>
+        <v>85448</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17328,25 +17325,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1599</v>
+        <v>3739</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17359,10 +17356,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>446696</v>
+        <v>446732</v>
       </c>
       <c r="R146" t="n">
-        <v>7032530</v>
+        <v>7032598</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17422,10 +17419,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112104547</v>
+        <v>112102104</v>
       </c>
       <c r="B147" t="n">
-        <v>89080</v>
+        <v>90799</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17434,25 +17431,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>256335</v>
+        <v>1968</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17465,10 +17462,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>446688</v>
+        <v>446883</v>
       </c>
       <c r="R147" t="n">
-        <v>7032560</v>
+        <v>7032568</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17528,10 +17525,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112101944</v>
+        <v>112104553</v>
       </c>
       <c r="B148" t="n">
-        <v>89033</v>
+        <v>86371</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17544,21 +17541,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17571,10 +17568,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>446858</v>
+        <v>446688</v>
       </c>
       <c r="R148" t="n">
-        <v>7032743</v>
+        <v>7032560</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17634,10 +17631,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112111606</v>
+        <v>112102682</v>
       </c>
       <c r="B149" t="n">
-        <v>89033</v>
+        <v>84955</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17646,39 +17643,41 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3286</v>
+        <v>275</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Kejsarskivling</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Catathelasma imperiale</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(P.Karst.) Singer</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>446863</v>
+        <v>447025</v>
       </c>
       <c r="R149" t="n">
-        <v>7032718</v>
+        <v>7032672</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17719,6 +17718,7 @@
       <c r="AE149" t="b">
         <v>0</v>
       </c>
+      <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="b">
         <v>0</v>
       </c>
@@ -17737,10 +17737,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112104270</v>
+        <v>112102196</v>
       </c>
       <c r="B150" t="n">
-        <v>85434</v>
+        <v>89104</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17749,25 +17749,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3739</v>
+        <v>5747</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -17780,10 +17780,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>446732</v>
+        <v>446964</v>
       </c>
       <c r="R150" t="n">
-        <v>7032598</v>
+        <v>7032565</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17843,10 +17843,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112102196</v>
+        <v>112101944</v>
       </c>
       <c r="B151" t="n">
-        <v>89090</v>
+        <v>89047</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17855,25 +17855,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17886,10 +17886,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>446964</v>
+        <v>446858</v>
       </c>
       <c r="R151" t="n">
-        <v>7032565</v>
+        <v>7032743</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>

--- a/artfynd/A 67089-2021.xlsx
+++ b/artfynd/A 67089-2021.xlsx
@@ -16368,10 +16368,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112111486</v>
+        <v>112111498</v>
       </c>
       <c r="B137" t="n">
-        <v>83086</v>
+        <v>88181</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16380,25 +16380,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5589</v>
+        <v>1599</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>446833</v>
+        <v>446860</v>
       </c>
       <c r="R137" t="n">
-        <v>7032727</v>
+        <v>7032743</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16471,10 +16471,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112111606</v>
+        <v>112103325</v>
       </c>
       <c r="B138" t="n">
-        <v>89047</v>
+        <v>85448</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16487,35 +16487,37 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3286</v>
+        <v>3739</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>446863</v>
+        <v>446867</v>
       </c>
       <c r="R138" t="n">
-        <v>7032718</v>
+        <v>7032726</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16556,6 +16558,7 @@
       <c r="AE138" t="b">
         <v>0</v>
       </c>
+      <c r="AF138" t="inlineStr"/>
       <c r="AG138" t="b">
         <v>0</v>
       </c>
@@ -16574,10 +16577,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112103325</v>
+        <v>112102196</v>
       </c>
       <c r="B139" t="n">
-        <v>85448</v>
+        <v>89104</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16586,25 +16589,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3739</v>
+        <v>5747</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16617,10 +16620,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>446867</v>
+        <v>446964</v>
       </c>
       <c r="R139" t="n">
-        <v>7032726</v>
+        <v>7032565</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16680,10 +16683,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112104547</v>
+        <v>112102104</v>
       </c>
       <c r="B140" t="n">
-        <v>89094</v>
+        <v>90799</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16692,25 +16695,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>256335</v>
+        <v>1968</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16723,10 +16726,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>446688</v>
+        <v>446883</v>
       </c>
       <c r="R140" t="n">
-        <v>7032560</v>
+        <v>7032568</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16786,10 +16789,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112111498</v>
+        <v>112102682</v>
       </c>
       <c r="B141" t="n">
-        <v>88181</v>
+        <v>84955</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16802,35 +16805,37 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1599</v>
+        <v>275</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Kejsarskivling</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Catathelasma imperiale</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(P.Karst.) Singer</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>446860</v>
+        <v>447025</v>
       </c>
       <c r="R141" t="n">
-        <v>7032743</v>
+        <v>7032672</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16871,6 +16876,7 @@
       <c r="AE141" t="b">
         <v>0</v>
       </c>
+      <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="b">
         <v>0</v>
       </c>
@@ -16889,10 +16895,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112102200</v>
+        <v>112101773</v>
       </c>
       <c r="B142" t="n">
-        <v>89047</v>
+        <v>86371</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16905,21 +16911,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -16932,10 +16938,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>446961</v>
+        <v>446984</v>
       </c>
       <c r="R142" t="n">
-        <v>7032566</v>
+        <v>7032942</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -16995,10 +17001,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112101773</v>
+        <v>112104266</v>
       </c>
       <c r="B143" t="n">
-        <v>86371</v>
+        <v>89104</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17007,25 +17013,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17038,10 +17044,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>446984</v>
+        <v>446732</v>
       </c>
       <c r="R143" t="n">
-        <v>7032942</v>
+        <v>7032598</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17101,10 +17107,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112104266</v>
+        <v>112104547</v>
       </c>
       <c r="B144" t="n">
-        <v>89104</v>
+        <v>89094</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17117,21 +17123,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17144,10 +17150,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>446732</v>
+        <v>446688</v>
       </c>
       <c r="R144" t="n">
-        <v>7032598</v>
+        <v>7032560</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17207,10 +17213,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112104573</v>
+        <v>112111486</v>
       </c>
       <c r="B145" t="n">
-        <v>88181</v>
+        <v>83086</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17219,41 +17225,39 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1599</v>
+        <v>5589</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>446696</v>
+        <v>446833</v>
       </c>
       <c r="R145" t="n">
-        <v>7032530</v>
+        <v>7032727</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17294,7 +17298,6 @@
       <c r="AE145" t="b">
         <v>0</v>
       </c>
-      <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="b">
         <v>0</v>
       </c>
@@ -17313,10 +17316,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112104270</v>
+        <v>112102200</v>
       </c>
       <c r="B146" t="n">
-        <v>85448</v>
+        <v>89047</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17329,21 +17332,21 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3739</v>
+        <v>3286</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17356,10 +17359,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>446732</v>
+        <v>446961</v>
       </c>
       <c r="R146" t="n">
-        <v>7032598</v>
+        <v>7032566</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17419,10 +17422,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112102104</v>
+        <v>112104270</v>
       </c>
       <c r="B147" t="n">
-        <v>90799</v>
+        <v>85448</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17435,21 +17438,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1968</v>
+        <v>3739</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17462,10 +17465,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>446883</v>
+        <v>446732</v>
       </c>
       <c r="R147" t="n">
-        <v>7032568</v>
+        <v>7032598</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17525,10 +17528,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112104553</v>
+        <v>112104573</v>
       </c>
       <c r="B148" t="n">
-        <v>86371</v>
+        <v>88181</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17537,25 +17540,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4412</v>
+        <v>1599</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17568,10 +17571,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>446688</v>
+        <v>446696</v>
       </c>
       <c r="R148" t="n">
-        <v>7032560</v>
+        <v>7032530</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17631,10 +17634,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112102682</v>
+        <v>112101944</v>
       </c>
       <c r="B149" t="n">
-        <v>84955</v>
+        <v>89047</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17643,25 +17646,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>275</v>
+        <v>3286</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Kejsarskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Catathelasma imperiale</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(P.Karst.) Singer</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17674,10 +17677,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>447025</v>
+        <v>446858</v>
       </c>
       <c r="R149" t="n">
-        <v>7032672</v>
+        <v>7032743</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17737,10 +17740,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112102196</v>
+        <v>112111606</v>
       </c>
       <c r="B150" t="n">
-        <v>89104</v>
+        <v>89047</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17749,41 +17752,39 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
           <t>Renkullmyren (Renkullmyren), Jmt</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>446964</v>
+        <v>446863</v>
       </c>
       <c r="R150" t="n">
-        <v>7032565</v>
+        <v>7032718</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17824,7 +17825,6 @@
       <c r="AE150" t="b">
         <v>0</v>
       </c>
-      <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="b">
         <v>0</v>
       </c>
@@ -17843,10 +17843,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112101944</v>
+        <v>112104553</v>
       </c>
       <c r="B151" t="n">
-        <v>89047</v>
+        <v>86371</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17859,21 +17859,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17886,10 +17886,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>446858</v>
+        <v>446688</v>
       </c>
       <c r="R151" t="n">
-        <v>7032743</v>
+        <v>7032560</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
